--- a/Documentation/Dictionnaire de donnée.xlsx
+++ b/Documentation/Dictionnaire de donnée.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\OneDrive\Documents\BTS AN 2\Projet C#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\OneDrive\Documents\BTS AN 2\Projet C#\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57D33FF-0E35-4791-91A8-C7673B72449E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97576087-BF5E-49F8-BDD0-04E1F00802E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B0E417B-6A25-4FA5-8A26-584734DAF1A2}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
-  <si>
-    <t>tel_parent_eleve</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>varchar</t>
   </si>
@@ -51,9 +48,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>archive_eleve</t>
-  </si>
-  <si>
     <t>id_classe</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>en euros</t>
   </si>
   <si>
-    <t>autorisation_prelement_eleve</t>
-  </si>
-  <si>
     <t>id_flux</t>
   </si>
   <si>
@@ -111,15 +102,9 @@
     <t>champ permettant indiquer si l'élève est archivé ou non</t>
   </si>
   <si>
-    <t>cout_inscription_event</t>
-  </si>
-  <si>
     <t>le libellé du flux financier</t>
   </si>
   <si>
-    <t>le coût de l'inscription de l'évenement</t>
-  </si>
-  <si>
     <t>compte_parent_eleve</t>
   </si>
   <si>
@@ -132,123 +117,30 @@
     <t>identifiant de l'utilisateur</t>
   </si>
   <si>
-    <t>nom de l'utilisateur</t>
-  </si>
-  <si>
-    <t>prénom de l'utilisateur</t>
-  </si>
-  <si>
-    <t>date de naissance de l'utilisateur</t>
-  </si>
-  <si>
-    <t>le sexe de l'utilisateur</t>
-  </si>
-  <si>
-    <t>numero de téléphone de l'utilisateur</t>
-  </si>
-  <si>
     <t>émail de l'utilisateur</t>
   </si>
   <si>
-    <t>date de création de l'utilisateur</t>
-  </si>
-  <si>
-    <t>prenom_user</t>
-  </si>
-  <si>
-    <t>nom_user</t>
-  </si>
-  <si>
-    <t>date_naissance_user</t>
-  </si>
-  <si>
-    <t>sexe_user</t>
-  </si>
-  <si>
-    <t>tel_user</t>
-  </si>
-  <si>
     <t>email_user</t>
   </si>
   <si>
-    <t>date_creation_user</t>
-  </si>
-  <si>
-    <t>type_user</t>
-  </si>
-  <si>
-    <t>le type d'utilisateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">l'autorisation des parents pour le prélèvement </t>
   </si>
   <si>
-    <t>id_event</t>
-  </si>
-  <si>
-    <t>identifiant de l'évenement</t>
-  </si>
-  <si>
-    <t>lbl_event</t>
-  </si>
-  <si>
-    <t>libellé de l'évenement</t>
-  </si>
-  <si>
-    <t>date_debut_event</t>
-  </si>
-  <si>
-    <t>date_fin_event</t>
-  </si>
-  <si>
-    <t>date de début de l'evenement</t>
-  </si>
-  <si>
-    <t>date de fin de l'évenement</t>
-  </si>
-  <si>
     <t>id_budget</t>
   </si>
   <si>
     <t>identifiant du budget</t>
   </si>
   <si>
-    <t>montant_budget</t>
-  </si>
-  <si>
     <t>montant du budget</t>
   </si>
   <si>
-    <t>id_type_budget</t>
-  </si>
-  <si>
-    <t>identifiant du type de budget</t>
-  </si>
-  <si>
-    <t>lbl_type_budget</t>
-  </si>
-  <si>
-    <t>libellé du type de budget</t>
-  </si>
-  <si>
     <t>id_type_flux</t>
   </si>
   <si>
     <t>identifiant du type de flux</t>
   </si>
   <si>
-    <t>date_type_flux</t>
-  </si>
-  <si>
-    <t>montant_type_flux</t>
-  </si>
-  <si>
-    <t>date du type de flux</t>
-  </si>
-  <si>
-    <t>le montant du type de flux</t>
-  </si>
-  <si>
     <t>H pour Homme F pour femme</t>
   </si>
   <si>
@@ -264,7 +156,76 @@
     <t>mot de passe de l'utilisateur</t>
   </si>
   <si>
-    <t>A admin, C pour comptable et E pour eleve</t>
+    <t>nom_adherant</t>
+  </si>
+  <si>
+    <t>prenom_adherant</t>
+  </si>
+  <si>
+    <t>ddn_adherant</t>
+  </si>
+  <si>
+    <t>sexe_adherant</t>
+  </si>
+  <si>
+    <t>numtel_adherant</t>
+  </si>
+  <si>
+    <t>le sexe de l'adherant</t>
+  </si>
+  <si>
+    <t>nom de l'adherant</t>
+  </si>
+  <si>
+    <t>prénom de l'adherant</t>
+  </si>
+  <si>
+    <t>date de naissance de l'adherant</t>
+  </si>
+  <si>
+    <t>numero de téléphone de l'adherant</t>
+  </si>
+  <si>
+    <t>datemaj_adherant</t>
+  </si>
+  <si>
+    <t>date de mise à jour de l'adherant</t>
+  </si>
+  <si>
+    <t>tel_parent_adherant</t>
+  </si>
+  <si>
+    <t>archive_adherant</t>
+  </si>
+  <si>
+    <t>autoprelev_eleve</t>
+  </si>
+  <si>
+    <t>montantInitial_budget</t>
+  </si>
+  <si>
+    <t>libelle_budget</t>
+  </si>
+  <si>
+    <t>libellé du budget</t>
+  </si>
+  <si>
+    <t>date_flux</t>
+  </si>
+  <si>
+    <t>date du flux</t>
+  </si>
+  <si>
+    <t>montant_flux</t>
+  </si>
+  <si>
+    <t>le montant du flux</t>
+  </si>
+  <si>
+    <t>libelle_type_flux</t>
+  </si>
+  <si>
+    <t>libellé du type de flux</t>
   </si>
 </sst>
 </file>
@@ -288,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,26 +272,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6811EDCD-63AB-4A0B-8952-B5080B912190}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,200 +609,200 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>255</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>255</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>255</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>255</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>255</v>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>255</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>255</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -863,269 +812,184 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>255</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>255</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>255</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>255</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>255</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
+      <c r="A26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
